--- a/Examples/ANP_Water_Reservoir/WaterReservior_Full_filledIn.xlsx
+++ b/Examples/ANP_Water_Reservoir/WaterReservior_Full_filledIn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/IO Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/ANP_Water_Reservoir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C67682-7A57-E643-96E5-F0A406C2426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F19E100-6491-5B46-8CCC-2433F67EF066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10300" yWindow="460" windowWidth="18500" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pairwise_comp" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>1FloodControl</t>
   </si>
@@ -56,6 +56,18 @@
     <t>3Hi</t>
   </si>
   <si>
+    <t>Line Sum</t>
+  </si>
+  <si>
+    <t>Estimated Priority</t>
+  </si>
+  <si>
+    <t>Sum of Col</t>
+  </si>
+  <si>
+    <t>Est. Incons.</t>
+  </si>
+  <si>
     <t>2Recreation</t>
   </si>
   <si>
@@ -69,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +113,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +143,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFACCBE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF6B"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -136,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9D5B6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,15 +199,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37:K45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,17 +561,17 @@
     <col min="1" max="21" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -551,12 +587,18 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4">
@@ -565,415 +607,769 @@
       <c r="D4">
         <v>9.8904110000000003</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
+        <f>+B4+C4+D4</f>
+        <v>14.412362</v>
+      </c>
+      <c r="G4" s="8">
+        <f>F4/F7</f>
+        <v>0.72200000251470642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <f>1/C4</f>
         <v>0.28393353570222868</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5">
         <v>2.8082189999999998</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <f>+B5+C5+D5</f>
+        <v>4.0921525357022279</v>
+      </c>
+      <c r="G5" s="8">
+        <f>F5/F7</f>
+        <v>0.20499999521713172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <f>1/D4</f>
         <v>0.10110803282088075</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <f>1/D5</f>
         <v>0.35609758355740778</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <f>+B6+C6+D6</f>
+        <v>1.4572056163782885</v>
+      </c>
+      <c r="G6" s="8">
+        <f>F6/F7</f>
+        <v>7.3000002268161779E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11">
+        <f>SUM(B4:B6)</f>
+        <v>1.3850415685231092</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUM(C4:C6)</f>
+        <v>4.8780485835574074</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(D4:D6)</f>
+        <v>13.69863</v>
+      </c>
+      <c r="F7" s="8">
+        <f>SUM(F4:F6)</f>
+        <v>19.961720152080517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <f>((MMULT(B7:D7,G4:G6)-3)/(3-1))/0.52</f>
+        <v>-2.5648489315316805E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.110940004643948</v>
+      </c>
+      <c r="D12">
+        <v>0.25806499999999899</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <f>+B12+C12+D12</f>
+        <v>1.369005004643947</v>
+      </c>
+      <c r="G12" s="8">
+        <f>F12/F15</f>
+        <v>7.2000085352993987E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
+        <f>1/C12</f>
+        <v>9.0138810000000475</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2.326165</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <f>+B13+C13+D13</f>
+        <v>12.340046000000047</v>
+      </c>
+      <c r="G13" s="8">
+        <f>F13/F15</f>
+        <v>0.64900008564318856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9">
+        <f>1/D12</f>
+        <v>3.8749927343886381</v>
+      </c>
+      <c r="C14" s="9">
+        <f>1/D13</f>
+        <v>0.42989211857284415</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8">
+        <f>+B14+C14+D14</f>
+        <v>5.3048848529614823</v>
+      </c>
+      <c r="G14" s="8">
+        <f>F14/F15</f>
+        <v>0.27899982900381753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11">
+        <f>SUM(B12:B14)</f>
+        <v>13.888873734388685</v>
+      </c>
+      <c r="C15" s="11">
+        <f>SUM(C12:C14)</f>
+        <v>1.5408321232167921</v>
+      </c>
+      <c r="D15" s="11">
+        <f>SUM(D12:D14)</f>
+        <v>3.5842299999999989</v>
+      </c>
+      <c r="F15" s="8">
+        <f>SUM(F12:F14)</f>
+        <v>19.013935857605475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="11">
+        <f>((MMULT(B15:D15,G12:G14)-3)/(3-1))/0.52</f>
+        <v>-1.6214156854761524E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.110940004643948</v>
-      </c>
-      <c r="D11">
-        <v>0.25806499999999899</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.28019296328995802</v>
+      </c>
+      <c r="D20">
+        <v>7.8911999999999899E-2</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8">
+        <f>+B20+C20+D20</f>
+        <v>1.3591049632899579</v>
+      </c>
+      <c r="G20" s="8">
+        <f>F20/F23</f>
+        <v>5.8000180912451349E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="e">
-        <f>1/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2.326165</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="B21" s="9">
+        <f>1/C20</f>
+        <v>3.5689690000000063</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.28163300000000002</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8">
+        <f>+B21+C21+D21</f>
+        <v>4.8506020000000065</v>
+      </c>
+      <c r="G21" s="8">
+        <f>F21/F23</f>
+        <v>0.20700078443777797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="e">
-        <f>1/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="7">
-        <f>1/D12</f>
-        <v>0.42989211857284415</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B22" s="9">
+        <f>1/D20</f>
+        <v>12.672343876723454</v>
+      </c>
+      <c r="C22" s="9">
+        <f>1/D21</f>
+        <v>3.5507202636054722</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8">
+        <f>+B22+C22+D22</f>
+        <v>17.223064140328926</v>
+      </c>
+      <c r="G22" s="8">
+        <f>F22/F23</f>
+        <v>0.73499903464977068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11">
+        <f>SUM(B20:B22)</f>
+        <v>17.241312876723462</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUM(C20:C22)</f>
+        <v>4.8309132268954302</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUM(D20:D22)</f>
+        <v>1.3605449999999999</v>
+      </c>
+      <c r="F23" s="8">
+        <f>SUM(F20:F22)</f>
+        <v>23.43277110361889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11">
+        <f>((MMULT(B23:D23,G20:G22)-3)/(3-1))/0.52</f>
+        <v>1.3030133664356706E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2.4689920000000001</v>
+      </c>
+      <c r="D28">
+        <v>6.0666669999999998</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8">
+        <f>+B28+C28+D28</f>
+        <v>9.535658999999999</v>
+      </c>
+      <c r="G28" s="8">
+        <f>F28/F31</f>
+        <v>0.63699999564943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="9">
+        <f>1/C28</f>
+        <v>0.4050235885737985</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2.4571429999999999</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8">
+        <f>+B29+C29+D29</f>
+        <v>3.8621665885737984</v>
+      </c>
+      <c r="G29" s="8">
+        <f>F29/F31</f>
+        <v>0.25800000819229002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="9">
+        <f>1/D28</f>
+        <v>0.16483515577828814</v>
+      </c>
+      <c r="C30" s="9">
+        <f>1/D29</f>
+        <v>0.40697672052460931</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8">
+        <f>+B30+C30+D30</f>
+        <v>1.5718118763028974</v>
+      </c>
+      <c r="G30" s="8">
+        <f>F30/F31</f>
+        <v>0.10499999615828001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <f>SUM(B28:B30)</f>
+        <v>1.5698587443520866</v>
+      </c>
+      <c r="C31" s="11">
+        <f>SUM(C28:C30)</f>
+        <v>3.8759687205246092</v>
+      </c>
+      <c r="D31" s="11">
+        <f>SUM(D28:D30)</f>
+        <v>9.5238099999999992</v>
+      </c>
+      <c r="F31" s="8">
+        <f>SUM(F28:F30)</f>
+        <v>14.969637464876694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="11">
+        <f>((MMULT(B31:D31,G28:G30)-3)/(3-1))/0.52</f>
+        <v>-1.1170099460773468E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0.333333000000333</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8">
+        <f>+B36+C36+D36</f>
+        <v>2.3333330000003327</v>
+      </c>
+      <c r="G36" s="8">
+        <f>F36/F39</f>
+        <v>0.19999992571432545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="9">
+        <f>1/C36</f>
+        <v>3.0000030000000031</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="8">
+        <f>+B37+C37+D37</f>
+        <v>7.0000030000000031</v>
+      </c>
+      <c r="G37" s="8">
+        <f>F37/F39</f>
+        <v>0.60000011999995562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="9">
+        <f>1/D36</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="9">
+        <f>1/D37</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8">
+        <f>+B38+C38+D38</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G38" s="8">
+        <f>F38/F39</f>
+        <v>0.19999995428571896</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="11">
+        <f>SUM(B36:B38)</f>
+        <v>5.0000030000000031</v>
+      </c>
+      <c r="C39" s="11">
+        <f>SUM(C36:C38)</f>
+        <v>1.6666663333336662</v>
+      </c>
+      <c r="D39" s="11">
+        <f>SUM(D36:D38)</f>
         <v>5</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F39" s="8">
+        <f>SUM(F36:F38)</f>
+        <v>11.666669333333669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="11">
+        <f>((MMULT(B39:D39,G36:G38)-3)/(3-1))/0.52</f>
+        <v>8.1985700280011559E-14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0.28019296328995802</v>
-      </c>
-      <c r="D18">
-        <v>7.8911999999999899E-2</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7">
-        <f>1/C18</f>
-        <v>3.5689690000000063</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0.28163300000000002</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="7">
-        <f>1/D18</f>
-        <v>12.672343876723454</v>
-      </c>
-      <c r="C20" s="7">
-        <f>1/D19</f>
-        <v>3.5507202636054722</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="F43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0.25973998988052899</v>
+      </c>
+      <c r="D44">
+        <v>8.4626000000000007E-2</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8">
+        <f>+B44+C44+D44</f>
+        <v>1.3443659898805291</v>
+      </c>
+      <c r="G44" s="8">
+        <f>F44/F47</f>
+        <v>5.9999880566803415E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="9">
+        <f>1/C44</f>
+        <v>3.8500040000000149</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.32581100000000002</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8">
+        <f>+B45+C45+D45</f>
+        <v>5.1758150000000143</v>
+      </c>
+      <c r="G45" s="8">
+        <f>F45/F47</f>
+        <v>0.23099980524162783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="9">
+        <f>1/D44</f>
+        <v>11.816699359534894</v>
+      </c>
+      <c r="C46" s="9">
+        <f>1/D45</f>
+        <v>3.0692640825509265</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8">
+        <f>+B46+C46+D46</f>
+        <v>15.885963442085821</v>
+      </c>
+      <c r="G46" s="8">
+        <f>F46/F47</f>
+        <v>0.70900031419156873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>2.4689920000000001</v>
-      </c>
-      <c r="D25">
-        <v>6.0666669999999998</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="7">
-        <f>1/C25</f>
-        <v>0.4050235885737985</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2.4571429999999999</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="7">
-        <f>1/D25</f>
-        <v>0.16483515577828814</v>
-      </c>
-      <c r="C27" s="7">
-        <f>1/D26</f>
-        <v>0.40697672052460931</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0.333333000000333</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="7">
-        <f>1/C32</f>
-        <v>3.0000030000000031</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="7">
-        <f>1/D32</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="7">
-        <f>1/D33</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0.25973998988052899</v>
-      </c>
-      <c r="D39">
-        <v>8.4626000000000007E-2</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="7">
-        <f>1/C39</f>
-        <v>3.8500040000000149</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0.32581100000000002</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="7">
-        <f>1/D39</f>
-        <v>11.816699359534894</v>
-      </c>
-      <c r="C41" s="7">
-        <f>1/D40</f>
-        <v>3.0692640825509265</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6"/>
+      <c r="B47" s="11">
+        <f>SUM(B44:B46)</f>
+        <v>16.666703359534907</v>
+      </c>
+      <c r="C47" s="11">
+        <f>SUM(C44:C46)</f>
+        <v>4.3290040724314558</v>
+      </c>
+      <c r="D47" s="11">
+        <f>SUM(D44:D46)</f>
+        <v>1.4104369999999999</v>
+      </c>
+      <c r="F47" s="8">
+        <f>SUM(F44:F46)</f>
+        <v>22.406144431966364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="11">
+        <f>((MMULT(B47:D47,G44:G46)-3)/(3-1))/0.52</f>
+        <v>-3.9924641413404169E-7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Examples/ANP_Water_Reservoir/WaterReservior_Full_filledIn.xlsx
+++ b/Examples/ANP_Water_Reservoir/WaterReservior_Full_filledIn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/ANP_Water_Reservoir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F19E100-6491-5B46-8CCC-2433F67EF066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D2ACF-714C-9A4B-A73B-7B30AF2EC2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="460" windowWidth="18500" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="2880" windowWidth="18500" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pairwise_comp" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>1FloodControl</t>
-  </si>
-  <si>
-    <t>Enter judgments for the paiwise comparisons in the matrix or direct values in the green cells</t>
   </si>
   <si>
     <t>2Alternative Water Levels</t>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>1Purposes</t>
+  </si>
+  <si>
+    <t>Enter pairwise comparisons in the white cells of the table or numerical data in the green cells. For the Direct Values column, if the smallest value is best, invert the value before entering it (e.g., $10 as =1/10) .</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -568,35 +568,35 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9">
         <f>1/C4</f>
@@ -643,7 +643,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9">
         <f>1/D4</f>
@@ -668,7 +668,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="11">
         <f>SUM(B4:B6)</f>
@@ -689,7 +689,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="11">
         <f>((MMULT(B7:D7,G4:G6)-3)/(3-1))/0.52</f>
@@ -698,40 +698,40 @@
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="9">
         <f>1/C12</f>
@@ -778,7 +778,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="9">
         <f>1/D12</f>
@@ -803,7 +803,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11">
         <f>SUM(B12:B14)</f>
@@ -824,7 +824,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="11">
         <f>((MMULT(B15:D15,G12:G14)-3)/(3-1))/0.52</f>
@@ -833,40 +833,40 @@
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="9">
         <f>1/C20</f>
@@ -913,7 +913,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="9">
         <f>1/D20</f>
@@ -938,7 +938,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="11">
         <f>SUM(B20:B22)</f>
@@ -959,7 +959,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F24" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="11">
         <f>((MMULT(B23:D23,G20:G22)-3)/(3-1))/0.52</f>
@@ -968,35 +968,35 @@
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="9">
         <f>1/C28</f>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="9">
         <f>1/D28</f>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="11">
         <f>SUM(B28:B30)</f>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F32" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="11">
         <f>((MMULT(B31:D31,G28:G30)-3)/(3-1))/0.52</f>
@@ -1103,35 +1103,35 @@
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="9">
         <f>1/C36</f>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="9">
         <f>1/D36</f>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="11">
         <f>SUM(B36:B38)</f>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F40" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="11">
         <f>((MMULT(B39:D39,G36:G38)-3)/(3-1))/0.52</f>
@@ -1238,35 +1238,35 @@
     </row>
     <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="9">
         <f>1/C44</f>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="9">
         <f>1/D44</f>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="11">
         <f>SUM(B44:B46)</f>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F48" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="11">
         <f>((MMULT(B47:D47,G44:G46)-3)/(3-1))/0.52</f>
